--- a/FA20_TestData_ManageTransactionsAssetInvoices_21C.xlsx
+++ b/FA20_TestData_ManageTransactionsAssetInvoices_21C.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UIAF_Selenium_IGA-master\venv\Selenium\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cloud Test Automation\GNB\Scripts\Fixed Asset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A88DDD00-64DE-4EAE-A176-C7EC21F79F81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11DEDE29-2ECC-45D9-8DC5-A82CA95D0EC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="3444" windowWidth="17280" windowHeight="8916" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input_Value" sheetId="3" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
   <si>
     <t>UserName</t>
   </si>
@@ -136,15 +136,6 @@
   </si>
   <si>
     <t>101.0000.741003.000000.0000.000.0000</t>
-  </si>
-  <si>
-    <t>https://edrx.fa.us2.oraclecloud.com</t>
-  </si>
-  <si>
-    <t>IBM_IMPLEMENTATION_USER</t>
-  </si>
-  <si>
-    <t>Oracle1234</t>
   </si>
   <si>
     <t>Invoice Group 01</t>
@@ -657,59 +648,59 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="Y2" sqref="Y2"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AB2" sqref="Z2:AB2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="7" width="8.7265625" style="3"/>
-    <col min="8" max="8" width="16.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.90625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="19.26953125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="7" width="8.77734375" style="3"/>
+    <col min="8" max="8" width="16.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.88671875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="19.21875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="11" max="11" width="12" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.6328125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="10.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.26953125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="7.6328125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="17" width="8.7265625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="19" width="34.6328125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="11.90625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="16.08984375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.6640625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="10.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.21875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="7.6640625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="17" width="8.77734375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="19" width="34.6640625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="11.88671875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="16.109375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="22" max="22" width="15" style="3" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.26953125" style="3" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.36328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.7265625" style="3"/>
-    <col min="26" max="26" width="31.6328125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="26.26953125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="9.26953125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="16384" width="8.7265625" style="3"/>
+    <col min="23" max="23" width="15.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.77734375" style="3"/>
+    <col min="26" max="26" width="31.6640625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="26.21875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="9.21875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="16384" width="8.77734375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="14" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="H1" s="9" t="s">
         <v>36</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>39</v>
       </c>
       <c r="I1" s="10" t="s">
         <v>2</v>
@@ -754,10 +745,10 @@
         <v>5</v>
       </c>
       <c r="W1" s="13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="X1" s="12" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="Z1" s="10" t="s">
         <v>18</v>
@@ -804,13 +795,13 @@
         <v>4</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>15</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="O2" s="2">
         <v>100</v>
@@ -834,31 +825,22 @@
         <v>21</v>
       </c>
       <c r="V2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="X2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="W2" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA2" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB2" s="5" t="s">
-        <v>27</v>
-      </c>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="5"/>
+      <c r="AB2" s="5"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="Z2" r:id="rId1" display="https://edrx.fa.us2.oraclecloud.com/" xr:uid="{CAC8F4F0-BA41-4621-A422-E639516E2EE0}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -870,14 +852,14 @@
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -893,7 +875,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/FA20_TestData_ManageTransactionsAssetInvoices_21C.xlsx
+++ b/FA20_TestData_ManageTransactionsAssetInvoices_21C.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cloud Test Automation\GNB\Scripts\Fixed Asset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Backup_IGA_Master\UIAF_Selenium_IGA\venv\Selenium\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11DEDE29-2ECC-45D9-8DC5-A82CA95D0EC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4543B26E-A391-4CED-8626-E624514B4B9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="3444" windowWidth="17280" windowHeight="8916" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input_Value" sheetId="3" r:id="rId1"/>
@@ -129,15 +129,6 @@
     <t>Amount approved</t>
   </si>
   <si>
-    <t>Watson Enterprises United States</t>
-  </si>
-  <si>
-    <t>Motorola Mobility LLC</t>
-  </si>
-  <si>
-    <t>101.0000.741003.000000.0000.000.0000</t>
-  </si>
-  <si>
     <t>Invoice Group 01</t>
   </si>
   <si>
@@ -174,13 +165,22 @@
     <t>HighestExplicitWait</t>
   </si>
   <si>
-    <t>16-May-2021</t>
-  </si>
-  <si>
-    <t>Mukherjee, Subrata</t>
-  </si>
-  <si>
-    <t>AutoTestQ21BRD06</t>
+    <t>Government of New Brunswick-Shared</t>
+  </si>
+  <si>
+    <t>Test_Supplier10</t>
+  </si>
+  <si>
+    <t>2021-07-01</t>
+  </si>
+  <si>
+    <t>280.43091.963401.83311.100.10101.000.0000.0000</t>
+  </si>
+  <si>
+    <t>Abraham, Rajith</t>
+  </si>
+  <si>
+    <t>AutoTestQ21BRD11</t>
   </si>
 </sst>
 </file>
@@ -648,8 +648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AB2" sqref="Z2:AB2"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -659,7 +659,7 @@
     <col min="9" max="9" width="28.88671875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="19.21875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="11" max="11" width="12" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.6640625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="24.5546875" style="3" customWidth="1" collapsed="1"/>
     <col min="13" max="13" width="10.77734375" style="3" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.21875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="15" max="15" width="7.6640625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
@@ -679,28 +679,28 @@
   <sheetData>
     <row r="1" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="H1" s="9" t="s">
         <v>33</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>36</v>
       </c>
       <c r="I1" s="10" t="s">
         <v>2</v>
@@ -745,10 +745,10 @@
         <v>5</v>
       </c>
       <c r="W1" s="13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X1" s="12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="Z1" s="10" t="s">
         <v>18</v>
@@ -786,10 +786,10 @@
         <v>120</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>4</v>
@@ -801,7 +801,7 @@
         <v>15</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O2" s="2">
         <v>100</v>
@@ -813,10 +813,10 @@
         <v>20</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="T2" s="4" t="s">
         <v>16</v>
@@ -825,13 +825,13 @@
         <v>21</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="W2" s="4" t="s">
         <v>38</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Z2" s="1"/>
       <c r="AA2" s="5"/>
